--- a/biology/Botanique/Gasteria/Gasteria.xlsx
+++ b/biology/Botanique/Gasteria/Gasteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasteria est un genre de plantes à fleurs de la famille des Xanthorrhoeaceae. Ce sont des plantes succulentes qui s'apparentent aux Aloès, avec des fleurs rosâtres, facilement reconnaissables par leur périanthe soudé en forme  d'estomac d'où Gasteria tire son nom.
 Les quelque 80 espèces de ce genre sont originaires des régions arides d'Afrique méridionale.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasteria est un genre de plantes vivaces dotées de feuilles charnues et coriaces rangées la plupart du temps sur deux côtés. Elles sont généralement tachetées, striées de blanc ou même verruqueuses (Gasteria verrucosa, Gasteria batesiana…).
 Les fleurs sont organisées en grappe et ont des tépales soudés en forme de tubes renflés de couleur rose, rouge, voire jaune à la base et vert à leur extrémité.
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 déc. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 déc. 2010) :
 Gasteria acinacifolia (J.Jacq.) Haw. (1819)
 Gasteria batesiana G.D.Rowley (1955)
 Gasteria baylissiana Rauh (1977)
@@ -568,7 +584,7 @@
 Gasteria rawlinsonii Oberm. (1976)
 Gasteria tukhelensis van Jaarsv. (2005)
 Gasteria vlokii van Jaarsv. (1987)
-Selon NCBI  (27 déc. 2010)[2] :
+Selon NCBI  (27 déc. 2010) :
 Gasteria acinacifolia
 Gasteria batesiana
 Gasteria bicolor
@@ -604,7 +620,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des hybrides de Gasteria et d'Aloe nommés x Gasteraloe.
 </t>
